--- a/Test Data.xlsx
+++ b/Test Data.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Dropbox\sfassnacht1\Software Engineering\attendin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Student Data" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Login Data" sheetId="6" r:id="rId6"/>
     <sheet name="Verify Data" sheetId="7" r:id="rId7"/>
     <sheet name="SetCourse Data" sheetId="8" r:id="rId8"/>
+    <sheet name="TestQueries" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
   <si>
     <t>tid</t>
   </si>
@@ -168,9 +169,6 @@
     <t>William</t>
   </si>
   <si>
-    <t>Gregory</t>
-  </si>
-  <si>
     <t>Frederick</t>
   </si>
   <si>
@@ -280,6 +278,108 @@
   </si>
   <si>
     <t>Is this basically a duplicate of VerifyData?</t>
+  </si>
+  <si>
+    <t>checked addProfessor and updateProfessorToken at database level</t>
+  </si>
+  <si>
+    <t>checked addStudent and updateStudentToken at db level</t>
+  </si>
+  <si>
+    <t>checked professor_first_login, getProfessorByLoginid and updateProfessorToken in php</t>
+  </si>
+  <si>
+    <t>function name</t>
+  </si>
+  <si>
+    <t>professor_first_login</t>
+  </si>
+  <si>
+    <t>student_first_login</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>student_login</t>
+  </si>
+  <si>
+    <t>hashtime</t>
+  </si>
+  <si>
+    <t>md5_hash</t>
+  </si>
+  <si>
+    <t>student_tid</t>
+  </si>
+  <si>
+    <t>class_tid</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>student_list</t>
+  </si>
+  <si>
+    <t>professor_class_list</t>
+  </si>
+  <si>
+    <t>professor_tid</t>
+  </si>
+  <si>
+    <t>set_class</t>
+  </si>
+  <si>
+    <t>attendance_by_date</t>
+  </si>
+  <si>
+    <t>class_date</t>
+  </si>
+  <si>
+    <t>attendance_by_student</t>
+  </si>
+  <si>
+    <t>set_attendance</t>
+  </si>
+  <si>
+    <t>attendance_code</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Expected outcome</t>
+  </si>
+  <si>
+    <t>Add ngeyer1 w/token</t>
+  </si>
+  <si>
+    <t>checked addStudent at php level</t>
+  </si>
+  <si>
+    <t>www.attend-in.com</t>
+  </si>
+  <si>
+    <t>attend-in.php</t>
+  </si>
+  <si>
+    <t>addCourse works at DB level</t>
+  </si>
+  <si>
+    <t>There is no php code to test for this one</t>
+  </si>
+  <si>
+    <t>syzygy</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>Added cchristine then added token.</t>
   </si>
 </sst>
 </file>
@@ -597,10 +697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B4" sqref="B4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +709,7 @@
     <col min="1" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -638,8 +739,11 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -652,8 +756,11 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -667,7 +774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -681,7 +788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -702,10 +809,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +821,7 @@
     <col min="1" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +841,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -747,58 +858,93 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"CALL addProfessor('" &amp; B2 &amp; "', '" &amp; C2 &amp; "', '" &amp; D2 &amp; "', '" &amp; E2 &amp; "', '" &amp; F2 &amp; "');"</f>
+        <v>CALL addProfessor('wgjohnson', 'Professor', 'Johnson', 'William', 'syzygy');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G5" si="0">"CALL addProfessor('" &amp; B3 &amp; "', '" &amp; C3 &amp; "', '" &amp; D3 &amp; "', '" &amp; E3 &amp; "', '" &amp; F3 &amp; "');"</f>
+        <v>CALL addProfessor('cfrederick', 'Professor', 'Frederick', 'Chad', 'bezazzes');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addProfessor('kking', 'Dr', 'King', 'KN', 'pazazzes');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
       </c>
       <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addProfessor('hlouis', 'Professor', 'Louis', 'Henry', 'quizzers');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -808,10 +954,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +967,7 @@
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -831,36 +978,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>1010</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"CALL addCourse('" &amp; B2 &amp; "', '" &amp; C2 &amp; "');"</f>
+        <v>CALL addCourse('1010', 'Intro to CS');</v>
+      </c>
+      <c r="J2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E5" si="0">"CALL addCourse('" &amp; B3 &amp; "', '" &amp; C3 &amp; "');"</f>
+        <v>CALL addCourse('2020', 'Computer Science');</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>3030</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addCourse('3030', 'Advanced CS');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>4040</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addCourse('4040', 'Software Engineering');</v>
       </c>
     </row>
   </sheetData>
@@ -870,10 +1051,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +1064,7 @@
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -896,141 +1078,297 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"CALL addSection(" &amp; B2 &amp; ", " &amp; C2 &amp; ", " &amp; D2 &amp; ");"</f>
+        <v>CALL addSection(1, 1, 101);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3">
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I13" si="0">"CALL addSection(" &amp; B3 &amp; ", " &amp; C3 &amp; ", " &amp; D3 &amp; ");"</f>
+        <v>CALL addSection(1, 1, 102);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
       <c r="D4">
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addSection(1, 2, 103);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addSection(2, 1, 201);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6">
         <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addSection(2, 1, 202);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="D7">
         <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addSection(2, 2, 203);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8">
         <v>301</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addSection(3, 2, 301);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>302</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addSection(3, 1, 302);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10">
         <v>303</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addSection(3, 1, 303);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11">
         <v>401</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addSection(4, 2, 401);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="D12">
         <v>402</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addSection(4, 2, 402);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
       <c r="D13">
         <v>403</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL addSection(4, 3, 403);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1040,6 +1378,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1118,7 +1457,7 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1131,7 +1470,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1141,6 +1480,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1183,22 +1523,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1208,6 +1548,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1243,10 +1584,10 @@
         <v>101</v>
       </c>
       <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
         <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1254,10 +1595,10 @@
         <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1265,10 +1606,10 @@
         <v>201</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1276,10 +1617,10 @@
         <v>202</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1289,9 +1630,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1661,367 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="127.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="str">
+        <f>$B$1 &amp; "/" &amp; $C$1 &amp; "?function=" &amp; $A$2 &amp; "&amp;" &amp; $B$2 &amp; "=" &amp; $B3 &amp; "&amp;" &amp; $C$2 &amp; "=" &amp; $C3 &amp; "&amp;" &amp; $D$2 &amp; "=" &amp; $D3 &amp; "&amp;" &amp; $E$2 &amp; "=" &amp; $E3</f>
+        <v>www.attend-in.com/attend-in.php?function=student_first_login&amp;loginid=ngeyer1&amp;last_name=Geyer&amp;first_name=Nathan&amp;token=zyzzyvas</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I6" si="0">$B$1 &amp; "/" &amp; $C$1 &amp; "?function=" &amp; $A$2 &amp; "&amp;" &amp; $B$2 &amp; "=" &amp; $B4 &amp; "&amp;" &amp; $C$2 &amp; "=" &amp; $C4 &amp; "&amp;" &amp; $D$2 &amp; "=" &amp; $D4 &amp; "&amp;" &amp; $E$2 &amp; "=" &amp; $E4</f>
+        <v>www.attend-in.com/attend-in.php?function=student_first_login&amp;loginid=cchristine1&amp;last_name=Sanders&amp;first_name=China&amp;token=zizzling</v>
+      </c>
+      <c r="J4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>www.attend-in.com/attend-in.php?function=student_first_login&amp;loginid=mkandagadda1&amp;last_name=Kandagadda&amp;first_name=Mounika&amp;token=jazzlike</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>www.attend-in.com/attend-in.php?function=student_first_login&amp;loginid=sfarah1&amp;last_name=Farah&amp;first_name=Sharmarke&amp;token=quizzing</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>$B$1 &amp; "/" &amp; $C$1 &amp; "?function=" &amp; $A$8 &amp; "&amp;" &amp; $B$8 &amp; "=" &amp; $B9 &amp; "&amp;" &amp; $C$8 &amp; "=" &amp; $C9 &amp; "&amp;" &amp; $D$8 &amp; "=" &amp; $D9 &amp; "&amp;" &amp; $E$8 &amp; "=" &amp; $E9 &amp; "&amp;" &amp; $F$8 &amp; "=" &amp; $F9 &amp; "&amp;" &amp; $G$8 &amp; "=" &amp; $G9 &amp; "&amp;" &amp; $H$8 &amp; "=" &amp; $H9</f>
+        <v>www.attend-in.com/attend-in.php?function=student_login&amp;hashtime=&amp;md5_hash=&amp;student_tid=&amp;class_tid=&amp;ip_address=&amp;latitude=&amp;longitude=</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="str">
+        <f>$B$1 &amp; "/" &amp; $C$1 &amp; "?function=" &amp; $A$14 &amp; "&amp;" &amp; $B$14 &amp; "=" &amp; $B15 &amp; "&amp;" &amp; $C$14 &amp; "=" &amp; $C15 &amp; "&amp;" &amp; $D$14 &amp; "=" &amp; $D15</f>
+        <v>www.attend-in.com/attend-in.php?function=student_list&amp;hashtime=&amp;md5_hash=&amp;student_tid=</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="str">
+        <f>$B$1 &amp; "/" &amp; $C$1 &amp; "?function=" &amp; $A$20 &amp; "&amp;" &amp; $B$20 &amp; "=" &amp; $B21 &amp; "&amp;" &amp; $C$20 &amp; "=" &amp; $C21 &amp; "&amp;" &amp; $D$20 &amp; "=" &amp; $D21 &amp; "&amp;" &amp; $E$20 &amp; "=" &amp; $E21 &amp; "&amp;" &amp; $F$20 &amp; "=" &amp; $F21</f>
+        <v>www.attend-in.com/attend-in.php?function=professor_first_login&amp;loginid=cfrederick&amp;title=Professor&amp;last_name=Frederick&amp;first_name=Chad&amp;token=bezazzes</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" t="str">
+        <f>$B$1 &amp; "/" &amp; $C$1 &amp; "?function=" &amp; $A$26 &amp; "&amp;" &amp; $B$26 &amp; "=" &amp; $B27 &amp; "&amp;" &amp; $C$26 &amp; "=" &amp; $C27 &amp; "&amp;" &amp; $D$26 &amp; "=" &amp; $D27</f>
+        <v>www.attend-in.com/attend-in.php?function=professor_class_list&amp;hashtime=&amp;md5_hash=&amp;professor_tid=</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" t="str">
+        <f>$B$1 &amp; "/" &amp; $C$1 &amp; "?function=" &amp; $A$32 &amp; "&amp;" &amp; $B$32 &amp; "=" &amp; $B33 &amp; "&amp;" &amp; $C$32 &amp; "=" &amp; $C33 &amp; "&amp;" &amp; $D$32 &amp; "=" &amp; $D33 &amp; "&amp;" &amp; $E$32 &amp; "=" &amp; $E33</f>
+        <v>www.attend-in.com/attend-in.php?function=set_class&amp;hashtime=&amp;md5_hash=&amp;professor_tid=&amp;class_tid=</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I39" t="str">
+        <f>$B$1 &amp; "/" &amp; $C$1 &amp; "?function=" &amp; $A$38 &amp; "&amp;" &amp; $B$38 &amp; "=" &amp; $B39 &amp; "&amp;" &amp; $C$38 &amp; "=" &amp; $C39 &amp; "&amp;" &amp; $D$38 &amp; "=" &amp; $D39 &amp; "&amp;" &amp; $E$38 &amp; "=" &amp; $E39 &amp; "&amp;" &amp; $F$38 &amp; "=" &amp; $F39</f>
+        <v>www.attend-in.com/attend-in.php?function=attendance_by_date&amp;hashtime=&amp;md5_hash=&amp;professor_tid=&amp;class_tid=&amp;class_date=</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="str">
+        <f>$B$1 &amp; "/" &amp; $C$1 &amp; "?function=" &amp; $A$44 &amp; "&amp;" &amp; $B$44 &amp; "=" &amp; $B45 &amp; "&amp;" &amp; $C$44 &amp; "=" &amp; $C45 &amp; "&amp;" &amp; $D$44 &amp; "=" &amp; $D45 &amp; "&amp;" &amp; $E$44 &amp; "=" &amp; $E45 &amp; "&amp;" &amp; $F$44 &amp; "=" &amp; $F45</f>
+        <v>www.attend-in.com/attend-in.php?function=attendance_by_student&amp;hashtime=&amp;md5_hash=&amp;professor_tid=&amp;class_tid=&amp;student_tid=</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I51" t="str">
+        <f>$B$1 &amp; "/" &amp; $C$1 &amp; "?function=" &amp; $A$50 &amp; "&amp;" &amp; $B$50 &amp; "=" &amp; $B51 &amp; "&amp;" &amp; $C$50 &amp; "=" &amp; $C51 &amp; "&amp;" &amp; $D$50 &amp; "=" &amp; $D51 &amp; "&amp;" &amp; $E$50 &amp; "=" &amp; $E51 &amp; "&amp;" &amp; $F$50 &amp; "=" &amp; $F51 &amp; "&amp;" &amp; $G$50 &amp; "=" &amp; $G51 &amp; "&amp;" &amp; $H$50 &amp; "=" &amp; $H51</f>
+        <v>www.attend-in.com/attend-in.php?function=set_attendance&amp;hashtime=&amp;md5_hash=&amp;professor_tid=&amp;class_tid=&amp;student_tid=&amp;class_date=&amp;attendance_code=</v>
       </c>
     </row>
   </sheetData>
